--- a/PsychoPy-online/fpjt_files/Messages.xlsx
+++ b/PsychoPy-online/fpjt_files/Messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdabb12e9f34f4c5/10_Paper/105_MIA/10_BAS_Collab/FPJT/PsychoPy-online/fpjt_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{9A5DEF40-44A6-4D82-8A38-CC73A1DAE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0316EF-C267-469D-9216-3736AEF7B6CA}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{9A5DEF40-44A6-4D82-8A38-CC73A1DAE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017C1BFF-8D4B-4688-B369-D5E1ACE56321}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="11850" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="354">
   <si>
     <t>EN</t>
   </si>
@@ -150,9 +150,6 @@
     <t>right_arm_front</t>
   </si>
   <si>
-    <t>Raise your right arm in the direction of your gaze in front of you.</t>
-  </si>
-  <si>
     <t>Heben Sie Ihren rechten Arm in Blickrichtung vor sich an.</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>left_arm_front</t>
-  </si>
-  <si>
-    <t>Raise your left arm in the direction of your gaze in front of you.</t>
   </si>
   <si>
     <t>Heben Sie Ihren linken Arm in Blickrichtung vor sich an.</t>
@@ -616,11 +610,6 @@
   </si>
   <si>
     <t>no es importante cuán rápido decida si la imagen coincide con su posición final en su imaginación.</t>
-  </si>
-  <si>
-    <t>Examples:
-&lt;== Tilting the head downward &amp; rotating the upper body to the left.
-Raising the left arm in front of the body in the direction of gaze &amp; rotating the upper body to the left ==&gt;</t>
   </si>
   <si>
     <t>Ejemplos:
@@ -851,10 +840,6 @@
 Abra los ojos cuando escuche la señal sonora. Decida lo más RÁPIDA Y CORRECTAMENTE posible si la imagen mostrada coincide con la posición final en su imagery.</t>
   </si>
   <si>
-    <t>Imaginez À QUOI CELA RESSEMBLE et CE QUE L’ON RESSENT en exécutant vous-même les mouvements décrits dans l’instruction audio.
-Ouvrez les yeux lorsque vous entendez le signal sonore. Décidez aussi RAPIDEMENT ET CORRECTEMENT que possible si l’image affichée correspond à la position finale dans votre imagerie.</t>
-  </si>
-  <si>
     <t>Placez maintenant vos index sur les touches « S » et « L ».
 Laissez vos doigts reposer sur ces touches jusqu’à ce que vous ayez terminé tous les essais de la tâche.
 Lorsque vous êtes prêt(e), appuyez sur la barre d’espace avec votre pouce.</t>
@@ -969,6 +954,247 @@
   <si>
     <t>Unfortunately, your answers were not completely correct.
 Please read the instructions carefully again.</t>
+  </si>
+  <si>
+    <t>testsound</t>
+  </si>
+  <si>
+    <t>Stellen Sie die Lautstärke an Ihrem Gerät so ein, dass Sie dieses Audio klar und deutlich hören können. Bitte lassen Sie die Lautstärke anschließend unverändert. Drücken Sie danach die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Adjust the volume on your device so that you can hear this audio clearly. Please keep the volume unchanged afterwards. Then press the space bar to continue.</t>
+  </si>
+  <si>
+    <t>Réglez le volume de votre appareil de manière à entendre clairement cet audio. Veuillez ensuite laisser le volume inchangé. Appuyez ensuite sur la barre d’espace pour continuer.</t>
+  </si>
+  <si>
+    <t>Ajuste el volumen de su dispositivo para que pueda escuchar este audio con claridad. Por favor, mantenga el volumen sin cambios a continuación. Luego presione la barra espaciadora para continuar.</t>
+  </si>
+  <si>
+    <t>Raise your right arm forward in the direction of your gaze.</t>
+  </si>
+  <si>
+    <t>Raise your left arm forward in the direction of your gaze.</t>
+  </si>
+  <si>
+    <t>Examples:
+&lt;== Tilting the head downward &amp; rotating the upper body to the left.
+Raising the left arm forward in the direction of gaze &amp; rotating the upper body to the left ==&gt;</t>
+  </si>
+  <si>
+    <t>demographics_msg</t>
+  </si>
+  <si>
+    <t>Please fill out this information about yourself.</t>
+  </si>
+  <si>
+    <t>Por favor completa esta información sobre ti.</t>
+  </si>
+  <si>
+    <t>Veuillez remplir ces informations vous concernant.</t>
+  </si>
+  <si>
+    <t>Bitte füllen Sie diese Informationen über sich selbst aus.</t>
+  </si>
+  <si>
+    <t>age_msg</t>
+  </si>
+  <si>
+    <t>Age:</t>
+  </si>
+  <si>
+    <t>Edad:</t>
+  </si>
+  <si>
+    <t>Âge :</t>
+  </si>
+  <si>
+    <t>Alter:</t>
+  </si>
+  <si>
+    <t>gender_msg</t>
+  </si>
+  <si>
+    <t>Gender:</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Genre :</t>
+  </si>
+  <si>
+    <t>Geschlecht:</t>
+  </si>
+  <si>
+    <t>f_msg</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>m_msg</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>tg_msg</t>
+  </si>
+  <si>
+    <t>Trans-gender</t>
+  </si>
+  <si>
+    <t>Transgénero</t>
+  </si>
+  <si>
+    <t>Transgenre</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>nb_msg</t>
+  </si>
+  <si>
+    <t>Non-binary</t>
+  </si>
+  <si>
+    <t>No binario</t>
+  </si>
+  <si>
+    <t>Non binaire</t>
+  </si>
+  <si>
+    <t>Nicht-binär</t>
+  </si>
+  <si>
+    <t>o_msg</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>pns_msg</t>
+  </si>
+  <si>
+    <t>Prefer not saying</t>
+  </si>
+  <si>
+    <t>Prefiero no decirlo</t>
+  </si>
+  <si>
+    <t>Préfère ne pas le dire</t>
+  </si>
+  <si>
+    <t>Möchte ich nicht sagen</t>
+  </si>
+  <si>
+    <t>next_msg</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Weiter</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>Suivant</t>
+  </si>
+  <si>
+    <t>laterality_msg</t>
+  </si>
+  <si>
+    <t>Hand dominance:</t>
+  </si>
+  <si>
+    <t>Mano dominante:</t>
+  </si>
+  <si>
+    <t>Dominance manuelle :</t>
+  </si>
+  <si>
+    <t>Handdominanz:</t>
+  </si>
+  <si>
+    <t>left_msg</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Izquierda</t>
+  </si>
+  <si>
+    <t>Gauche</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>ambi_msg</t>
+  </si>
+  <si>
+    <t>Ambidextrous</t>
+  </si>
+  <si>
+    <t>Ambidiestro/a</t>
+  </si>
+  <si>
+    <t>Ambidextre</t>
+  </si>
+  <si>
+    <t>Beidhändig</t>
+  </si>
+  <si>
+    <t>right_msg</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Derecha</t>
+  </si>
+  <si>
+    <t>Droite</t>
+  </si>
+  <si>
+    <t>Rechte</t>
+  </si>
+  <si>
+    <t>Rappel :
+Imaginez À QUOI CELA RESSEMBLE et CE QUE L’ON RESSENT en exécutant vous-même les mouvements décrits dans l’instruction audio.
+Ouvrez les yeux lorsque vous entendez le signal sonore. Décidez aussi RAPIDEMENT ET CORRECTEMENT que possible si l’image affichée correspond à la position finale dans votre imagerie.</t>
   </si>
 </sst>
 </file>
@@ -1048,13 +1274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1077,10 +1305,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1380,11 +1604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1406,10 +1630,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
@@ -1423,10 +1647,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
@@ -1440,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -1451,900 +1675,1155 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
         <v>266</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
         <v>270</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="D35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>225</v>
+        <v>113</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" t="s">
-        <v>237</v>
+        <v>114</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>226</v>
+      <c r="B47" t="s">
+        <v>222</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>245</v>
+        <v>210</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>137</v>
+        <v>220</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>141</v>
+      <c r="D57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2359,6 +2838,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -2472,38 +2966,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2518,10 +2981,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>